--- a/docentes/Hernández Mendoza Delfina - Estadisticos 20211.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,60 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>ANALI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>ELIAS ALONSO</t>
   </si>
 </sst>
 </file>
@@ -480,16 +534,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.52</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,16 +560,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>52.38</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,16 +586,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>74.29000000000001</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,16 +612,19 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>60.61</v>
+      </c>
+      <c r="H5">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +683,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -640,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -663,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -686,7 +752,7 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -748,16 +814,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>64.52</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -771,16 +840,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>52.38</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -794,16 +866,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>74.29000000000001</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -817,16 +892,19 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>60.61</v>
+      </c>
+      <c r="H5">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +914,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,6 +947,144 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920407</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Hernández Mendoza Delfina - Estadisticos 20211.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
     <t>MARCIAL</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
   </si>
   <si>
     <t>IVAN DE JESUS</t>
@@ -914,7 +923,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,22 +958,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920136</v>
+        <v>19330051920314</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -972,16 +981,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920151</v>
+        <v>20330051920136</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -995,22 +1004,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920407</v>
+        <v>20330051920151</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1018,22 +1027,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920191</v>
+        <v>19330051920407</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1041,16 +1050,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920202</v>
+        <v>20330051920191</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1064,24 +1073,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920270</v>
+        <v>20330051920202</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>6</v>
       </c>
     </row>
